--- a/venta_departamento_arica-y-parinacota.xlsx
+++ b/venta_departamento_arica-y-parinacota.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -25,33 +25,66 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
+    <t>Novo Azapa</t>
+  </si>
+  <si>
+    <t>$ 60.426.339</t>
+  </si>
+  <si>
+    <t>-18.49428</t>
+  </si>
+  <si>
+    <t>-70.28793</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/7347-novo-azapa-nva?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Edificio Vista Azapa</t>
   </si>
   <si>
     <t>$ 92.635.974</t>
   </si>
   <si>
+    <t>-18.49675</t>
+  </si>
+  <si>
+    <t>-70.28152</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/6163-edificio-vista-azapa-nva?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Novo Azapa</t>
-  </si>
-  <si>
-    <t>$ 60.426.339</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/7347-novo-azapa-nva?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Condominio Doña Bernardita</t>
   </si>
   <si>
     <t>$ 63.886.879</t>
   </si>
   <si>
+    <t>-18.43767</t>
+  </si>
+  <si>
+    <t>-70.29518</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/6955-condominio-dona-bernardita-nva?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -61,6 +94,12 @@
     <t>$ 66.442.354</t>
   </si>
   <si>
+    <t>-18.48819</t>
+  </si>
+  <si>
+    <t>-70.30494</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/6926-condominio-vista-21-nva?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -70,6 +109,12 @@
     <t>$ 43.185.928</t>
   </si>
   <si>
+    <t>-18.44863</t>
+  </si>
+  <si>
+    <t>-70.29628</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/2797388-departamento-villa-pedro-lagos-arica-uda?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -79,6 +124,12 @@
     <t>$ 106.478.131</t>
   </si>
   <si>
+    <t>-18.49597</t>
+  </si>
+  <si>
+    <t>-70.26820</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/2797609-departamento-valle-de-azapa-km-uno-y-medio-condominio-vista-al-valle-uda?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -86,6 +137,12 @@
   </si>
   <si>
     <t>$ 70.004.511</t>
+  </si>
+  <si>
+    <t>-18.49163</t>
+  </si>
+  <si>
+    <t>-70.30598</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/arica-arica-y-parinacota/3586486-las-palmas-poniente-arica-departamento-195-uda?tp=2&amp;op=1&amp;iug=454&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
@@ -429,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +496,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,114 +509,234 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>7347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>49.7</v>
+      </c>
+      <c r="E2">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="F2">
+        <v>60.845</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>6163</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>69.04000000000001</v>
+      </c>
+      <c r="E3">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="F3">
+        <v>80.515</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>7347</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>6955</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>76.23999999999999</v>
+      </c>
+      <c r="E4">
+        <v>84.54000000000001</v>
+      </c>
+      <c r="F4">
+        <v>80.39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>6926</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>87</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2797388</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>82</v>
+      </c>
+      <c r="E6">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2797609</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>3586486</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
